--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_2_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_2_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>24.45000000000038</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.004547557442662442</v>
+        <v>0.0001329492889827755</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004547557442662442</v>
+        <v>0.0001329492889827755</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>33.95962934442581</v>
+        <v>43.32340847890948</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[11.605813357181333, 56.31344533167028]</t>
+          <t>[20.970947141883414, 65.67586981593554]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.003725567771672322</v>
+        <v>0.000314305368861012</v>
       </c>
       <c r="O2" t="n">
-        <v>0.003725567771672322</v>
+        <v>0.000314305368861012</v>
       </c>
       <c r="P2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.704447665911579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.7610264486173479, 2.6227109840779645]</t>
+          <t>[1.0503422885875784, 2.35855304323558]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0006582522075764263</v>
+        <v>4.007484533552486e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0006582522075764263</v>
+        <v>4.007484533552486e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>54.54409636153085</v>
+        <v>50.81462721899463</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[40.56357416480732, 68.52461855825439]</t>
+          <t>[37.26871113755763, 64.36054330043163]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>5.554132709306714e-10</v>
+        <v>1.540767513574792e-09</v>
       </c>
       <c r="W2" t="n">
-        <v>5.554132709306714e-10</v>
+        <v>1.540767513574792e-09</v>
       </c>
       <c r="X2" t="n">
-        <v>17.86636636636665</v>
+        <v>18.42954954954993</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.24414414414437</v>
+        <v>15.79675675675708</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.48858858858893</v>
+        <v>21.06234234234277</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>24.45000000000038</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.005898715954677947</v>
+        <v>0.009404625739463546</v>
       </c>
       <c r="I3" t="n">
-        <v>0.005898715954677947</v>
+        <v>0.009404625739463546</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>27.79708192667702</v>
+        <v>31.18663509599834</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[5.4582476755328315, 50.13591617782121]</t>
+          <t>[8.261100068970208, 54.11217012302648]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.0158855073396631</v>
+        <v>0.008780231703852781</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0158855073396631</v>
+        <v>0.008780231703852781</v>
       </c>
       <c r="P3" t="n">
-        <v>1.037763339023655</v>
+        <v>1.566079220708426</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.2704474156243464, 1.8050792624229643]</t>
+          <t>[0.5346053564667326, 2.5975530849501194]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.009149772202740492</v>
+        <v>0.003744111474839329</v>
       </c>
       <c r="S3" t="n">
-        <v>0.009149772202740492</v>
+        <v>0.003744111474839329</v>
       </c>
       <c r="T3" t="n">
-        <v>47.67182839189867</v>
+        <v>57.9684014176738</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[36.002883345000484, 59.34077343879686]</t>
+          <t>[43.81406802493275, 72.12273481041485]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.607500799138961e-10</v>
+        <v>1.502287183541284e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.607500799138961e-10</v>
+        <v>1.502287183541284e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>20.41171171171203</v>
+        <v>18.98648648648687</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.4258258258261</v>
+        <v>14.83477477477507</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.39759759759797</v>
+        <v>23.13819819819866</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>24.45000000000038</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01128794481322237</v>
+        <v>0.01459868353999727</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01128794481322237</v>
+        <v>0.01459868353999727</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>29.00578033653576</v>
+        <v>26.29223080446661</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[4.024493304498073, 53.987067368573456]</t>
+          <t>[4.5131580822661235, 48.07130352666709]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0238594158674077</v>
+        <v>0.01908235934236924</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0238594158674077</v>
+        <v>0.01908235934236924</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9748685912040393</v>
+        <v>1.402552876377425</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.0691842226015762, 1.8805529598065025]</t>
+          <t>[0.24528951649649944, 2.5598162362583503]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.035489487244871</v>
+        <v>0.01864471585941518</v>
       </c>
       <c r="S4" t="n">
-        <v>0.035489487244871</v>
+        <v>0.01864471585941518</v>
       </c>
       <c r="T4" t="n">
-        <v>52.98055579117086</v>
+        <v>49.50185021631177</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[39.8473226719331, 66.11378891040862]</t>
+          <t>[36.972991832747894, 62.03070859987565]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>2.268538690231026e-10</v>
+        <v>3.971272199976283e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>2.268538690231026e-10</v>
+        <v>3.971272199976283e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>20.65645645645678</v>
+        <v>19.64468468468509</v>
       </c>
       <c r="Y4" t="n">
-        <v>17.1321321321324</v>
+        <v>14.98666666666697</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.18078078078116</v>
+        <v>24.3027027027032</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.45000000000038</v>
+        <v>25.29000000000051</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006241546649597973</v>
+        <v>5.741969242523126e-06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0006241546649597973</v>
+        <v>5.741969242523126e-06</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>37.50473870043174</v>
+        <v>52.38558132301438</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[13.423093318864296, 61.58638408199919]</t>
+          <t>[26.915910940462908, 77.85525170556585]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.003009326788339539</v>
+        <v>0.0001492541438408157</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003009326788339539</v>
+        <v>0.0001492541438408157</v>
       </c>
       <c r="P5" t="n">
-        <v>1.188710733790733</v>
+        <v>0.6100790538502698</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.4842895582110387, 1.8931319093704264]</t>
+          <t>[0.14465791998511524, 1.0755001877154244]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.00142678337193769</v>
+        <v>0.01135049706026203</v>
       </c>
       <c r="S5" t="n">
-        <v>0.00142678337193769</v>
+        <v>0.01135049706026203</v>
       </c>
       <c r="T5" t="n">
-        <v>57.04983029849352</v>
+        <v>74.64030306970081</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[44.2024093111182, 69.89725128586883]</t>
+          <t>[61.69832880257721, 87.5822773368244]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.521605064169762e-11</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>1.521605064169762e-11</v>
+        <v>3.774758283725532e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>19.82432432432464</v>
+        <v>22.83441441441488</v>
       </c>
       <c r="Y5" t="n">
-        <v>17.08318318318345</v>
+        <v>20.96108108108151</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.56546546546582</v>
+        <v>24.70774774774825</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.9400000000003</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.147165354042912e-06</v>
+        <v>0.001038573859302283</v>
       </c>
       <c r="I6" t="n">
-        <v>1.147165354042912e-06</v>
+        <v>0.001038573859302283</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>46.85921852693762</v>
+        <v>43.09807545013506</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[29.22873716535662, 64.48969988851863]</t>
+          <t>[15.179590712389128, 71.01656018788098]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.814662839689674e-06</v>
+        <v>0.003249514089439298</v>
       </c>
       <c r="O6" t="n">
-        <v>2.814662839689674e-06</v>
+        <v>0.003249514089439298</v>
       </c>
       <c r="P6" t="n">
-        <v>0.09434212172942402</v>
+        <v>0.3459211130078854</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.3710790121357297, 0.5597632555945777]</t>
+          <t>[-0.3710790121357306, 1.0629212381515014]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.685015925737563</v>
+        <v>0.3363859907714357</v>
       </c>
       <c r="S6" t="n">
-        <v>0.685015925737563</v>
+        <v>0.3363859907714357</v>
       </c>
       <c r="T6" t="n">
-        <v>44.40363027944075</v>
+        <v>59.16735452444348</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[33.51535738014366, 55.29190317873785]</t>
+          <t>[44.01726378697283, 74.31744526191413]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.68756120189073e-10</v>
+        <v>5.406519676398602e-10</v>
       </c>
       <c r="W6" t="n">
-        <v>1.68756120189073e-10</v>
+        <v>5.406519676398602e-10</v>
       </c>
       <c r="X6" t="n">
-        <v>23.58054054054084</v>
+        <v>23.15115115115152</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.80720720720749</v>
+        <v>20.35535535535568</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.35387387387419</v>
+        <v>25.94694694694736</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.9400000000003</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001331391743948362</v>
+        <v>1.143063180442105e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001331391743948362</v>
+        <v>1.143063180442105e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>41.26518601318978</v>
+        <v>49.60846321346344</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[20.99431255361698, 61.536059472762574]</t>
+          <t>[28.864415454180275, 70.3525109727466]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0001705995924992099</v>
+        <v>1.689566900431316e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0001705995924992099</v>
+        <v>1.689566900431316e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1195000208572692</v>
+        <v>0.3710790121357315</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.5220264069028095, 0.7610264486173479]</t>
+          <t>[-0.09434212172942313, 0.8365001460008861]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.7092920626824832</v>
+        <v>0.115304902713121</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7092920626824832</v>
+        <v>0.115304902713121</v>
       </c>
       <c r="T7" t="n">
-        <v>59.31371400014771</v>
+        <v>63.81519396921546</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[46.74548911537269, 71.88193888492272]</t>
+          <t>[52.42263138580792, 75.20775655262301]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.487121619765276e-12</v>
+        <v>1.043609643147647e-14</v>
       </c>
       <c r="W7" t="n">
-        <v>2.487121619765276e-12</v>
+        <v>1.043609643147647e-14</v>
       </c>
       <c r="X7" t="n">
-        <v>23.48468468468498</v>
+        <v>23.05305305305342</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.04036036036062</v>
+        <v>21.23823823823858</v>
       </c>
       <c r="Z7" t="n">
-        <v>25.92900900900934</v>
+        <v>24.86786786786827</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.9400000000003</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.39097830592172e-05</v>
+        <v>0.07216644972170105</v>
       </c>
       <c r="I8" t="n">
-        <v>2.39097830592172e-05</v>
+        <v>0.07216644972170105</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>54.49794798734587</v>
+        <v>25.30883776526227</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[28.936401513403453, 80.05949446128828]</t>
+          <t>[-2.81639876527678, 53.43407429580132]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>9.228828427398916e-05</v>
+        <v>0.07659699795691832</v>
       </c>
       <c r="O8" t="n">
-        <v>9.228828427398916e-05</v>
+        <v>0.07659699795691832</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2327105669325773</v>
+        <v>1.33965812855781</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.2956053147521933, 0.7610264486173479]</t>
+          <t>[-0.20755266780473036, 2.88686892492035]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.3797074144120254</v>
+        <v>0.08800162604420558</v>
       </c>
       <c r="S8" t="n">
-        <v>0.3797074144120254</v>
+        <v>0.08800162604420558</v>
       </c>
       <c r="T8" t="n">
-        <v>68.05322073586224</v>
+        <v>61.60309217120391</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[53.168509373056864, 82.93793209866762]</t>
+          <t>[46.21946266679163, 76.9867216756162]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.447953282417984e-12</v>
+        <v>2.76928258102771e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>6.447953282417984e-12</v>
+        <v>2.76928258102771e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>23.05333333333363</v>
+        <v>19.27627627627658</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.04036036036063</v>
+        <v>13.24324324324346</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.06630630630663</v>
+        <v>25.30930930930971</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.9400000000003</v>
+        <v>24.50000000000039</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0003429721279345488</v>
+        <v>3.816930207678482e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003429721279345488</v>
+        <v>3.816930207678482e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.97700610909465</v>
+        <v>53.22940685596252</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[19.147561941653684, 62.80645027653561]</t>
+          <t>[32.32779811790684, 74.13101559401821]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0.0004580368124482703</v>
+        <v>5.974861014168553e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0004580368124482703</v>
+        <v>5.974861014168553e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>0.1069210712933462</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.5660527303765388, 0.7798948729632311]</t>
+          <t>[-0.6163685286322318, 0.3647895373537695]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.7504511270000895</v>
+        <v>0.6080781158830737</v>
       </c>
       <c r="S9" t="n">
-        <v>0.7504511270000895</v>
+        <v>0.6080781158830737</v>
       </c>
       <c r="T9" t="n">
-        <v>61.21000753455985</v>
+        <v>61.36377874173499</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[47.86524572698835, 74.55476934213135]</t>
+          <t>[48.36113933582753, 74.36641814764245]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>5.856870544107551e-12</v>
+        <v>2.487121619765276e-12</v>
       </c>
       <c r="W9" t="n">
-        <v>5.856870544107551e-12</v>
+        <v>2.487121619765276e-12</v>
       </c>
       <c r="X9" t="n">
-        <v>23.53261261261291</v>
+        <v>0.490490490490501</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.96846846846874</v>
+        <v>-1.422422422422442</v>
       </c>
       <c r="Z9" t="n">
-        <v>26.09675675675708</v>
+        <v>2.403403403403444</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_2_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_per_day_fixed_period_2_sine_0.5_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.29000000000051</v>
+        <v>24.5700000000004</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0001329492889827755</v>
+        <v>0.001428681626717943</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001329492889827755</v>
+        <v>0.001428681626717943</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>43.32340847890948</v>
+        <v>36.27349124221165</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[20.970947141883414, 65.67586981593554]</t>
+          <t>[13.13483383695425, 59.412148647469046]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.000314305368861012</v>
+        <v>0.002840403088142374</v>
       </c>
       <c r="O2" t="n">
-        <v>0.000314305368861012</v>
+        <v>0.002840403088142374</v>
       </c>
       <c r="P2" t="n">
-        <v>1.704447665911579</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.0503422885875784, 2.35855304323558]</t>
+          <t>[0.610079053850269, 2.245342497160273]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.007484533552486e-06</v>
+        <v>0.00100983095242313</v>
       </c>
       <c r="S2" t="n">
-        <v>4.007484533552486e-06</v>
+        <v>0.00100983095242313</v>
       </c>
       <c r="T2" t="n">
-        <v>50.81462721899463</v>
+        <v>60.92851389132286</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[37.26871113755763, 64.36054330043163]</t>
+          <t>[47.54358646725602, 74.3134413153897]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.540767513574792e-09</v>
+        <v>7.34368121868556e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>1.540767513574792e-09</v>
+        <v>7.34368121868556e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>18.42954954954993</v>
+        <v>18.98702702702734</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.79675675675708</v>
+        <v>15.78972972972998</v>
       </c>
       <c r="Z2" t="n">
-        <v>21.06234234234277</v>
+        <v>22.18432432432469</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.29000000000051</v>
+        <v>24.5700000000004</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.009404625739463546</v>
+        <v>5.179524864562524e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009404625739463546</v>
+        <v>5.179524864562524e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>31.18663509599834</v>
+        <v>62.20800484112715</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[8.261100068970208, 54.11217012302648]</t>
+          <t>[38.115296732074555, 86.30071295017974]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.008780231703852781</v>
+        <v>4.70589942347388e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008780231703852781</v>
+        <v>4.70589942347388e-06</v>
       </c>
       <c r="P3" t="n">
-        <v>1.566079220708426</v>
+        <v>0.823921196436963</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.5346053564667326, 2.5975530849501194]</t>
+          <t>[0.4465527095192705, 1.2012896833546556]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>0.003744111474839329</v>
+        <v>6.627649040957806e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003744111474839329</v>
+        <v>6.627649040957806e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>57.9684014176738</v>
+        <v>62.95067204589428</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[43.81406802493275, 72.12273481041485]</t>
+          <t>[50.428980155221936, 75.47236393656662]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.502287183541284e-10</v>
+        <v>3.512745649913995e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.502287183541284e-10</v>
+        <v>3.512745649913995e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>18.98648648648687</v>
+        <v>21.34810810810846</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.83477477477507</v>
+        <v>19.87243243243276</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.13819819819866</v>
+        <v>22.82378378378415</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.29000000000051</v>
+        <v>24.5700000000004</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01459868353999727</v>
+        <v>0.0004817587063288276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01459868353999727</v>
+        <v>0.0004817587063288276</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>26.29223080446661</v>
+        <v>43.85461415697248</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[4.5131580822661235, 48.07130352666709]</t>
+          <t>[17.253631314623547, 70.45559699932141]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.01908235934236924</v>
+        <v>0.001788792439637144</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01908235934236924</v>
+        <v>0.001788792439637144</v>
       </c>
       <c r="P4" t="n">
-        <v>1.402552876377425</v>
+        <v>1.050342288587578</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.24528951649649944, 2.5598162362583503]</t>
+          <t>[0.40881586082750143, 1.6918687163476553]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.01864471585941518</v>
+        <v>0.00190995173073083</v>
       </c>
       <c r="S4" t="n">
-        <v>0.01864471585941518</v>
+        <v>0.00190995173073083</v>
       </c>
       <c r="T4" t="n">
-        <v>49.50185021631177</v>
+        <v>54.43029917044323</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[36.972991832747894, 62.03070859987565]</t>
+          <t>[39.74405327883528, 69.11654506205119]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>3.971272199976283e-10</v>
+        <v>2.09564277042773e-09</v>
       </c>
       <c r="W4" t="n">
-        <v>3.971272199976283e-10</v>
+        <v>2.09564277042773e-09</v>
       </c>
       <c r="X4" t="n">
-        <v>19.64468468468509</v>
+        <v>20.46270270270304</v>
       </c>
       <c r="Y4" t="n">
-        <v>14.98666666666697</v>
+        <v>17.95405405405435</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.3027027027032</v>
+        <v>22.97135135135172</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.29000000000051</v>
+        <v>24.5700000000004</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.741969242523126e-06</v>
+        <v>0.002319926769582259</v>
       </c>
       <c r="I5" t="n">
-        <v>5.741969242523126e-06</v>
+        <v>0.002319926769582259</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>52.38558132301438</v>
+        <v>31.42343167079499</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[26.915910940462908, 77.85525170556585]</t>
+          <t>[8.456238460151965, 54.39062488143802]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001492541438408157</v>
+        <v>0.008426422012272949</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001492541438408157</v>
+        <v>0.008426422012272949</v>
       </c>
       <c r="P5" t="n">
-        <v>0.6100790538502698</v>
+        <v>0.9371317425122712</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.14465791998511524, 1.0755001877154244]</t>
+          <t>[0.2327105669325773, 1.641552918091965]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.01135049706026203</v>
+        <v>0.01026326512533449</v>
       </c>
       <c r="S5" t="n">
-        <v>0.01135049706026203</v>
+        <v>0.01026326512533449</v>
       </c>
       <c r="T5" t="n">
-        <v>74.64030306970081</v>
+        <v>45.45881608899478</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[61.69832880257721, 87.5822773368244]</t>
+          <t>[33.46233743961898, 57.45529473837058]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>1.18889498246233e-09</v>
       </c>
       <c r="W5" t="n">
-        <v>3.774758283725532e-15</v>
+        <v>1.18889498246233e-09</v>
       </c>
       <c r="X5" t="n">
-        <v>22.83441441441488</v>
+        <v>20.90540540540574</v>
       </c>
       <c r="Y5" t="n">
-        <v>20.96108108108151</v>
+        <v>18.1508108108111</v>
       </c>
       <c r="Z5" t="n">
-        <v>24.70774774774825</v>
+        <v>23.66000000000039</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.50000000000039</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001038573859302283</v>
+        <v>0.001247755510009663</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001038573859302283</v>
+        <v>0.001247755510009663</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>43.09807545013506</v>
+        <v>40.69217478709345</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[15.179590712389128, 71.01656018788098]</t>
+          <t>[11.893834060028357, 69.49051551415855]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.003249514089439298</v>
+        <v>0.006645175044958762</v>
       </c>
       <c r="O6" t="n">
-        <v>0.003249514089439298</v>
+        <v>0.006645175044958762</v>
       </c>
       <c r="P6" t="n">
-        <v>0.3459211130078854</v>
+        <v>0.798763297309117</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.3710790121357306, 1.0629212381515014]</t>
+          <t>[0.1823947686768852, 1.4151318259413488]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.3363859907714357</v>
+        <v>0.012248719005445</v>
       </c>
       <c r="S6" t="n">
-        <v>0.3363859907714357</v>
+        <v>0.012248719005445</v>
       </c>
       <c r="T6" t="n">
-        <v>59.16735452444348</v>
+        <v>62.11557271181221</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[44.01726378697283, 74.31744526191413]</t>
+          <t>[47.44520782167653, 76.78593760194788]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>5.406519676398602e-10</v>
+        <v>5.952727200053687e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>5.406519676398602e-10</v>
+        <v>5.952727200053687e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>23.15115115115152</v>
+        <v>21.19335335335366</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.35535535535568</v>
+        <v>18.81153153153181</v>
       </c>
       <c r="Z6" t="n">
-        <v>25.94694694694736</v>
+        <v>23.57517517517552</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.50000000000039</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.143063180442105e-06</v>
+        <v>0.01233656407889938</v>
       </c>
       <c r="I7" t="n">
-        <v>1.143063180442105e-06</v>
+        <v>0.01233656407889938</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>49.60846321346344</v>
+        <v>28.38643345725355</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[28.864415454180275, 70.3525109727466]</t>
+          <t>[4.45263902055472, 52.32022789395238]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.689566900431316e-05</v>
+        <v>0.02115756786991585</v>
       </c>
       <c r="O7" t="n">
-        <v>1.689566900431316e-05</v>
+        <v>0.02115756786991585</v>
       </c>
       <c r="P7" t="n">
-        <v>0.3710790121357315</v>
+        <v>0.4591316590831935</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-0.09434212172942313, 0.8365001460008861]</t>
+          <t>[-0.49057903299300065, 1.4088423511593877]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.115304902713121</v>
+        <v>0.3354080092483365</v>
       </c>
       <c r="S7" t="n">
-        <v>0.115304902713121</v>
+        <v>0.3354080092483365</v>
       </c>
       <c r="T7" t="n">
-        <v>63.81519396921546</v>
+        <v>45.3097612239776</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[52.42263138580792, 75.20775655262301]</t>
+          <t>[32.396696620757496, 58.22282582719771]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.043609643147647e-14</v>
+        <v>8.102867044001982e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>1.043609643147647e-14</v>
+        <v>8.102867044001982e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>23.05305305305342</v>
+        <v>22.50578578578611</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.23823823823858</v>
+        <v>18.83583583583611</v>
       </c>
       <c r="Z7" t="n">
-        <v>24.86786786786827</v>
+        <v>26.17573573573612</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.50000000000039</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07216644972170105</v>
+        <v>0.008180921069930625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07216644972170105</v>
+        <v>0.008180921069930625</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>25.30883776526227</v>
+        <v>28.84444566953841</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[-2.81639876527678, 53.43407429580132]</t>
+          <t>[6.767868375078123, 50.9210229639987]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.07659699795691832</v>
+        <v>0.01160031911625947</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659699795691832</v>
+        <v>0.01160031911625947</v>
       </c>
       <c r="P8" t="n">
-        <v>1.33965812855781</v>
+        <v>0.1320789704211922</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-0.20755266780473036, 2.88686892492035]</t>
+          <t>[-0.8679475199106932, 1.1321054607530776]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0.08800162604420558</v>
+        <v>0.7914437402885763</v>
       </c>
       <c r="S8" t="n">
-        <v>0.08800162604420558</v>
+        <v>0.7914437402885763</v>
       </c>
       <c r="T8" t="n">
-        <v>61.60309217120391</v>
+        <v>48.83652237221997</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.21946266679163, 76.9867216756162]</t>
+          <t>[36.37290215118132, 61.30014259325863]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.76928258102771e-10</v>
+        <v>4.954001653345586e-10</v>
       </c>
       <c r="W8" t="n">
-        <v>2.76928258102771e-10</v>
+        <v>4.954001653345586e-10</v>
       </c>
       <c r="X8" t="n">
-        <v>19.27627627627658</v>
+        <v>23.76960960960996</v>
       </c>
       <c r="Y8" t="n">
-        <v>13.24324324324346</v>
+        <v>19.90522522522552</v>
       </c>
       <c r="Z8" t="n">
-        <v>25.30930930930971</v>
+        <v>27.63399399399439</v>
       </c>
     </row>
     <row r="9">
@@ -1167,7 +1167,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.50000000000039</v>
+        <v>24.28000000000036</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>3.816930207678482e-06</v>
+        <v>5.612070083316212e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>3.816930207678482e-06</v>
+        <v>5.612070083316212e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.22940685596252</v>
+        <v>48.56912242609774</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[32.32779811790684, 74.13101559401821]</t>
+          <t>[25.60555591642813, 71.53268893576734]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.974861014168553e-06</v>
+        <v>0.000102914655984554</v>
       </c>
       <c r="O9" t="n">
-        <v>5.974861014168553e-06</v>
+        <v>0.000102914655984554</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.1257894956392311</v>
+        <v>0.5723422051585008</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-0.6163685286322318, 0.3647895373537695]</t>
+          <t>[0.08176317216549922, 1.0629212381515023]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>0.6080781158830737</v>
+        <v>0.02323088532976758</v>
       </c>
       <c r="S9" t="n">
-        <v>0.6080781158830737</v>
+        <v>0.02323088532976758</v>
       </c>
       <c r="T9" t="n">
-        <v>61.36377874173499</v>
+        <v>67.04588897582578</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.36113933582753, 74.36641814764245]</t>
+          <t>[54.87799576661027, 79.21378218504128]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.487121619765276e-12</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>2.487121619765276e-12</v>
+        <v>1.798561299892754e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>0.490490490490501</v>
+        <v>22.06830830830863</v>
       </c>
       <c r="Y9" t="n">
-        <v>-1.422422422422442</v>
+        <v>20.17257257257287</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.403403403403444</v>
+        <v>23.9640440440444</v>
       </c>
     </row>
   </sheetData>
